--- a/Chicago Crime Project Data Attributes.xlsx
+++ b/Chicago Crime Project Data Attributes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawless\Documents\IBM\Class\Day\Data Science Team 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lawless\Desktop\IBM\Class\Day\Data Science Team 1\ChicagoCrimeProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16939AE5-920D-4C03-BC0E-06F0DFA6AB17}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5158543-C4C9-4A5C-91E9-86A2651C3DFA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31095" yWindow="4410" windowWidth="21525" windowHeight="10830" xr2:uid="{28B6FBDB-7B4F-4BB2-9472-73DBE1D8D243}"/>
+    <workbookView xWindow="30660" yWindow="2835" windowWidth="22725" windowHeight="13530" activeTab="3" xr2:uid="{28B6FBDB-7B4F-4BB2-9472-73DBE1D8D243}"/>
   </bookViews>
   <sheets>
     <sheet name="Crime" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>CASE#,DATE  OF OCCURRENCE,BLOCK, IUCR, PRIMARY DESCRIPTION, SECONDARY DESCRIPTION, LOCATION DESCRIPTION,ARREST,DOMESTIC,BEAT,WARD,FBI CD,X COORDINATE,Y COORDINATE,LATITUDE,LONGITUDE,LOCATION</t>
   </si>
@@ -291,9 +291,6 @@
     <t>dt_iso</t>
   </si>
   <si>
-    <t>timezone</t>
-  </si>
-  <si>
     <t>temp</t>
   </si>
   <si>
@@ -325,9 +322,6 @@
   </si>
   <si>
     <t>+nnnn UTC is offset</t>
-  </si>
-  <si>
-    <t>Shift in seconds from UTC</t>
   </si>
   <si>
     <t>main temperature</t>
@@ -365,6 +359,9 @@
   </si>
   <si>
     <t>Chicago weather data</t>
+  </si>
+  <si>
+    <t>Reference TZ</t>
   </si>
 </sst>
 </file>
@@ -755,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89453A89-3D12-49CF-9F5E-2B16924CA963}">
   <dimension ref="A1:D18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -827,6 +824,9 @@
       </c>
       <c r="C9" t="s">
         <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,17 +1017,17 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -1328,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7FFF65-6426-4BF7-B553-DE7FD1BD111C}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1345,17 +1345,17 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1378,13 +1378,13 @@
         <v>86</v>
       </c>
       <c r="B8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" t="s">
         <v>96</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1392,66 +1392,55 @@
         <v>87</v>
       </c>
       <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" t="s">
         <v>100</v>
       </c>
-      <c r="C10" t="s">
-        <v>102</v>
-      </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>89</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="B12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="72" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
